--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3464.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3464.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.333546234066749</v>
+        <v>1.0609130859375</v>
       </c>
       <c r="B1">
-        <v>1.449507532386932</v>
+        <v>1.769896388053894</v>
       </c>
       <c r="C1">
-        <v>1.695093976288437</v>
+        <v>5.206596374511719</v>
       </c>
       <c r="D1">
-        <v>2.827388663437164</v>
+        <v>0.872567892074585</v>
       </c>
       <c r="E1">
-        <v>7.790057522996998</v>
+        <v>0.4049972891807556</v>
       </c>
     </row>
   </sheetData>
